--- a/fhir/ig/urgencia/CodeSystem-prevision.xlsx
+++ b/fhir/ig/urgencia/CodeSystem-prevision.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T17:49:18-04:00</t>
+    <t>2024-08-29T09:57:29-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/urgencia/CodeSystem-prevision.xlsx
+++ b/fhir/ig/urgencia/CodeSystem-prevision.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://proceso-urgencia.minsal.cl/CodeSystem/prevision</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/urgencia/CodeSystem/Prevision</t>
   </si>
   <si>
     <t>Version</t>
@@ -42,6 +42,9 @@
     <t>Title</t>
   </si>
   <si>
+    <t>Prevision</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -57,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-29T09:57:29-04:00</t>
+    <t>2024-11-07T14:38:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ChileData</t>
+    <t>Unidad de Interoperabilidad - MINSAL</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>ChileData (http://chiledata.cl)</t>
+    <t>Unidad de Interoperabilidad - MINSAL (https://interoperabilidad.minsal.cl)</t>
   </si>
   <si>
     <t>Roberto Araneda (roberto.araneda@chiledata.cl(work))</t>
@@ -81,7 +84,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t/>
+    <t>Chile</t>
   </si>
   <si>
     <t>Description</t>
@@ -144,7 +147,7 @@
     <t>FONASA</t>
   </si>
   <si>
-    <t>Fondo Nacional de Salud.</t>
+    <t>Fondo Nacional de Salud</t>
   </si>
   <si>
     <t>2</t>
@@ -153,7 +156,7 @@
     <t>ISAPRE</t>
   </si>
   <si>
-    <t>Instituciones de Salud Previsional.</t>
+    <t>Instituciones de Salud Previsional</t>
   </si>
   <si>
     <t>3</t>
@@ -162,7 +165,7 @@
     <t>CAPREDENA</t>
   </si>
   <si>
-    <t>Caja de Previsión de la Defensa Nacional.</t>
+    <t>Caja de Previsión de la Defensa Nacional</t>
   </si>
   <si>
     <t>4</t>
@@ -180,7 +183,7 @@
     <t>SISA</t>
   </si>
   <si>
-    <t>Sistema de Salud de las Fuerzas Armadas (Ejército, Armada y Fuerza Aérea).</t>
+    <t>Sistema de Salud de las Fuerzas Armadas (Ejército, Armada y Fuerza Aérea)</t>
   </si>
   <si>
     <t>96</t>
@@ -189,7 +192,7 @@
     <t>NINGUNA</t>
   </si>
   <si>
-    <t>Sin previsión de salud.</t>
+    <t>Sin previsión de salud</t>
   </si>
   <si>
     <t>99</t>
@@ -198,7 +201,7 @@
     <t>DESCONOCIDO</t>
   </si>
   <si>
-    <t>Previsión de salud desconocida.</t>
+    <t>Previsión de salud desconocida</t>
   </si>
 </sst>
 </file>
@@ -379,145 +382,145 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -535,114 +538,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ig/urgencia/CodeSystem-prevision.xlsx
+++ b/fhir/ig/urgencia/CodeSystem-prevision.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:38:19-03:00</t>
+    <t>2024-12-13T10:10:51-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
